--- a/biology/Médecine/Protéine_Z/Protéine_Z.xlsx
+++ b/biology/Médecine/Protéine_Z/Protéine_Z.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_Z</t>
+          <t>Protéine_Z</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La protéine Z (PZ) est une glycoprotéine intervenant dans la régulation de la coagulation sanguine.
-La protéine Z est un cofacteur de la ZPI (protein Z-related protease inhibitor) pour l'inhibition du facteur Xa. Cette réaction est accélérée 1000 fois en présence de PZ, de phospholipides et de calcium[1]. 
-C'est une protéine de 62 kDa synthétisée par le foie en présence de vitamine K. Elle est identifiée pour la première fois chez l'homme en 1984; son gène se situe sur le chromosome 13 (13q34) [2]. 
+La protéine Z est un cofacteur de la ZPI (protein Z-related protease inhibitor) pour l'inhibition du facteur Xa. Cette réaction est accélérée 1000 fois en présence de PZ, de phospholipides et de calcium. 
+C'est une protéine de 62 kDa synthétisée par le foie en présence de vitamine K. Elle est identifiée pour la première fois chez l'homme en 1984; son gène se situe sur le chromosome 13 (13q34) . 
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_Z</t>
+          <t>Protéine_Z</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,10 +525,12 @@
           <t>Déficit</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le déficit en protéine Z n'est pas clairement associé à un risque de thrombose veineuse s'il est isolé mais bien s'il est associé à d'autres anomalies thrombogènes comme le facteur V Leiden par exemple[3].
-Il semblerait même, de façon paradoxale, que le déficit puisse aussi mener à un risque accru de saignement s'il est associé à un déficit en facteur de coagulation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le déficit en protéine Z n'est pas clairement associé à un risque de thrombose veineuse s'il est isolé mais bien s'il est associé à d'autres anomalies thrombogènes comme le facteur V Leiden par exemple.
+Il semblerait même, de façon paradoxale, que le déficit puisse aussi mener à un risque accru de saignement s'il est associé à un déficit en facteur de coagulation.
 </t>
         </is>
       </c>
